--- a/RNN_python/output_data_test/anom_data2.xlsx
+++ b/RNN_python/output_data_test/anom_data2.xlsx
@@ -427,7 +427,7 @@
         <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>-17.1514243296609</v>
+        <v>74.35913357214432</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.51009322546372</v>
+        <v>78.48233312028488</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.835767511511733</v>
+        <v>51.23757925594886</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.410459552729009</v>
+        <v>48.30789879295928</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.551775046695582</v>
+        <v>84.54558607600924</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.165321602416668</v>
+        <v>94.09313874645343</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14.24420864913137</v>
+        <v>96.67248036651819</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>177.9011863786548</v>
+        <v>99.17076704415308</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>459.3386955968804</v>
+        <v>113.9782291892452</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>453.9173146209178</v>
+        <v>147.7467803175963</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>409.9809915563737</v>
+        <v>203.3505266394262</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>327.2054601210664</v>
+        <v>274.5416316551785</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>280.5430323385343</v>
+        <v>317.8068357036656</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>237.0692385016096</v>
+        <v>313.6749104175973</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>194.9865533409392</v>
+        <v>281.5866696651647</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>156.4505666887893</v>
+        <v>242.6209473969412</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>122.2336755408498</v>
+        <v>204.2105606723674</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>92.23023323446617</v>
+        <v>169.364977432265</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>66.3176637335177</v>
+        <v>139.5390191237491</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>44.48220225619208</v>
+        <v>114.9535129640888</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>26.73073962377923</v>
+        <v>94.81683544989617</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05317332946728</v>
+        <v>78.10342864863753</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>3.416646969886386</v>
+        <v>64.02515284035124</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.286692552548345</v>
+        <v>52.06895230961975</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data2.xlsx
+++ b/RNN_python/output_data_test/anom_data2.xlsx
@@ -427,7 +427,7 @@
         <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>74.35913357214432</v>
+        <v>-5.096975524809778</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>78.48233312028488</v>
+        <v>14.0648286870191</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>51.23757925594886</v>
+        <v>13.66222611582909</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>48.30789879295928</v>
+        <v>14.4083139186238</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>84.54558607600924</v>
+        <v>13.69416157244535</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>94.09313874645343</v>
+        <v>6.435519730585483</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>96.67248036651819</v>
+        <v>0.01896741371078292</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>99.17076704415308</v>
+        <v>47.83107163442841</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>113.9782291892452</v>
+        <v>500.1520044976321</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>147.7467803175963</v>
+        <v>385.8960757722342</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>203.3505266394262</v>
+        <v>501.8158855090541</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>274.5416316551785</v>
+        <v>289.2738029147316</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>317.8068357036656</v>
+        <v>317.7878400140617</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>313.6749104175973</v>
+        <v>239.1475455521386</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>281.5866696651647</v>
+        <v>203.1839236507082</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>242.6209473969412</v>
+        <v>164.3494409461149</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>204.2105606723674</v>
+        <v>131.4720790607661</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>169.364977432265</v>
+        <v>102.0456604777976</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>139.5390191237491</v>
+        <v>75.62382137586295</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>114.9535129640888</v>
+        <v>53.88001735674881</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>94.81683544989617</v>
+        <v>37.02171493292828</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>78.10342864863753</v>
+        <v>25.4411443964981</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>64.02515284035124</v>
+        <v>18.78232726847941</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>52.06895230961975</v>
+        <v>6.117458210874815</v>
       </c>
     </row>
   </sheetData>
